--- a/data/trans_dic/P23_DUKE_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social global bajo</t>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 94,09%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>80,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>88,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90,18%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,54; 58,82</t>
+          <t>68,89; 97,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 31,38</t>
+          <t>76,03; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 58,77</t>
+          <t>76,64; 98,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 27,39</t>
+          <t>84,05; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 30,89</t>
+          <t>61,45; 87,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 61,04</t>
+          <t>73,86; 95,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 38,55</t>
+          <t>73,94; 94,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 28,14</t>
+          <t>70,17; 94,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 51,31</t>
+          <t>69,88; 90,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81,71; 95,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>79,02; 94,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>81,67; 96,34</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>77,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>83,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>87,22%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,13</t>
+          <t>61,05; 84,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 26,52</t>
+          <t>78,93; 92,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 25,79</t>
+          <t>74,81; 89,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 25,66</t>
+          <t>83,06; 94,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 24,18</t>
+          <t>83,74; 92,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,39; 22,56</t>
+          <t>84,02; 94,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 22,3</t>
+          <t>75,68; 88,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 23,28</t>
+          <t>78,89; 90,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 21,54</t>
+          <t>74,04; 87,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83,59; 92,08</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77,27; 87,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>83,38; 91,55</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>88,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>88,99%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,3</t>
+          <t>75,26; 90,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,92</t>
+          <t>81,39; 94,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 17,47</t>
+          <t>80,53; 92,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,65</t>
+          <t>79,18; 92,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,81</t>
+          <t>86,24; 95,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 24,12</t>
+          <t>81,28; 91,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,53</t>
+          <t>85,76; 95,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,6</t>
+          <t>84,75; 94,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,2</t>
+          <t>83,83; 92,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83,01; 91,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>84,88; 93,32</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>84,89; 92,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 22,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 23,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 29,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 23,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>80,81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>88,25%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86,09%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>88,6%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>86,93%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84,87%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88,44%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>86,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72,54; 85,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82,93; 91,91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>80,92; 90,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85,41; 93,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85,08; 91,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84,95; 91,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82,81; 90,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83,13; 90,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80,34; 87,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>85,51; 91,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>83,49; 89,05</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>85,55; 90,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 94,09%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93667</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>73267</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>90411</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>150645</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>85614</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77713</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89280</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>129835</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>179280</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>150980</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>179690</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>280481</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75189; 106408</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>60666; 79796</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75721; 97054</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>133789; 159174</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>69100; 98022</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>64969; 84367</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76356; 97880</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>106547; 143270</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>154840; 199542</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>137073; 160712</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>159687; 191356</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>254006; 299631</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>307831</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>272924</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>286908</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>394764</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>371173</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>306469</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>279025</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>388184</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>679004</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>579393</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>565933</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>782947</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>242883; 337167</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>247664; 290417</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>257813; 308996</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>365905; 415861</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>350171; 387740</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>286512; 320810</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>254442; 297171</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>360582; 412236</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>604178; 715708</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>547315; 602942</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>526105; 595936</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>748416; 821794</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>253985</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>198719</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>221680</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>279757</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>367506</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>276282</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>283268</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>341921</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>621491</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>475001</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>504948</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>621676</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>228954; 273895</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>182255; 211142</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>203198; 234311</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>253181; 296028</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>346459; 382815</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>257250; 290816</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>265872; 296473</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>321066; 356906</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>591807; 650234</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>448624; 493945</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>477326; 524808</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>593022; 644740</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>534.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>655482</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>544910</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>598998</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>825166</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>824293</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>660464</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>651573</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>859939</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1479775</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1205373</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1250571</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1685105</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>588456; 696664</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>512063; 567527</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>563008; 628208</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>785295; 858759</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>793248; 852823</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>633254; 684241</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>620631; 674973</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>821111; 892556</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1400763; 1530361</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1165414; 1240638</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1206620; 1286965</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1631535; 1732783</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
